--- a/jpcore-r4/feature/改行テスト/StructureDefinition-jp-medicationdosage-line.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-jp-medicationdosage-line.xlsx
@@ -161,53 +161,53 @@
 </t>
   </si>
   <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -783,7 +783,7 @@
         <v>47</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AK1" t="s" s="2">
         <v>41</v>
@@ -791,10 +791,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -805,25 +805,25 @@
         <v>42</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>53</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -874,13 +874,13 @@
         <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>41</v>
@@ -889,15 +889,15 @@
         <v>41</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -920,13 +920,13 @@
         <v>41</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
         <v>31</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -965,19 +965,19 @@
         <v>41</v>
       </c>
       <c r="AB3" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AC3" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="AC3" t="s" s="2">
+      <c r="AD3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE3" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="AD3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE3" t="s" s="2">
+      <c r="AF3" t="s" s="2">
         <v>61</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>62</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>42</v>
@@ -989,7 +989,7 @@
         <v>41</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>41</v>
@@ -1008,10 +1008,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>41</v>
@@ -1085,10 +1085,10 @@
         <v>63</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>41</v>
@@ -1116,7 +1116,7 @@
         <v>42</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>41</v>
@@ -1191,7 +1191,7 @@
         <v>42</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>41</v>
@@ -1219,25 +1219,25 @@
         <v>42</v>
       </c>
       <c r="G6" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>53</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1288,13 +1288,13 @@
         <v>41</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>41</v>
@@ -1303,7 +1303,7 @@
         <v>41</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
@@ -1334,7 +1334,7 @@
         <v>41</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>77</v>
@@ -1381,19 +1381,19 @@
         <v>41</v>
       </c>
       <c r="AB7" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AC7" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="AC7" t="s" s="2">
+      <c r="AD7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE7" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="AD7" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE7" t="s" s="2">
+      <c r="AF7" t="s" s="2">
         <v>61</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>62</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>42</v>
@@ -1405,10 +1405,10 @@
         <v>41</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
@@ -1532,7 +1532,7 @@
         <v>42</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>41</v>
@@ -1544,7 +1544,7 @@
         <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>92</v>
@@ -1611,7 +1611,7 @@
         <v>42</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>41</v>
